--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1698418.487766215</v>
+        <v>1802598.122217286</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.9685985371981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.7944255145753</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>236.4988263100493</v>
+        <v>22.26634217487534</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8.295721849963515</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>150.9601371840612</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>137.7197870082163</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>88.94137965734539</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>326.452304119939</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23.79925355567503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>123.1683857408171</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>21.77940929912585</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1531,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2369,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>98.72106119200242</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>77.93612009725659</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>100.5140508960355</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.3168020713686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>53.08838020946216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>28.75188085812011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>172.3645574474254</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>179.878080151978</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.03470992366</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.03470992366</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>2535.03470992366</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556936</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614558</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609102</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686061</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064737</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080117</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986291</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695164</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.38058137302</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507435</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275693</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547491</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341958</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.6572696514548</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C4" t="n">
-        <v>481.6572696514548</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="W4" t="n">
-        <v>930.4393996930023</v>
+        <v>1424.014542318866</v>
       </c>
       <c r="X4" t="n">
-        <v>702.449848794985</v>
+        <v>1196.024991420848</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.6572696514548</v>
+        <v>975.2324122773183</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.798686923957</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.584566587187</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3317.226304589007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3317.226304589007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3063.695827862844</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V5" t="n">
-        <v>2732.632940519273</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W5" t="n">
-        <v>2379.864285249158</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X5" t="n">
-        <v>2006.398526988078</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.398526988078</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4321398396067</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396067</v>
+        <v>670.3324359356059</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396067</v>
+        <v>520.2157965232701</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>520.2157965232701</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>373.3258490253597</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>205.6230124000787</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1334.171813810711</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1079.487325604824</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>790.0701555678638</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X7" t="n">
-        <v>562.0806046698465</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.0806046698465</v>
+        <v>839.2686188635128</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4805,13 +4807,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.5841306576262</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>584.5841306576262</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>434.4674912452905</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>434.4674912452905</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>434.4674912452905</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1815.46468751357</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1526.361820639214</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1271.677332433327</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556436</v>
+        <v>982.2601623963666</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576262</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.5841306576262</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5124,10 +5126,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5358,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,13 +5600,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5841,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5981,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>734.6461798836013</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>584.5295404712656</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429803</v>
@@ -6136,13 +6138,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6190,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2965.647484649469</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2796.711301721562</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4429.254964419905</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4140.179737764103</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3885.495249558217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3596.078079521256</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3368.088528623239</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3147.295949479709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6658,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6789,10 +6791,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035991</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7026,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7591,25 +7593,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
         <v>1280.315625093766</v>
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
         <v>484.8112968429803</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2265.268053123717</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>983.30903818352</v>
       </c>
     </row>
   </sheetData>
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>47.71290145456675</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.4693302300317</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>186.0089474405555</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.26785128072623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>73.85777223953468</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>114.1584408891656</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>37.52737017531024</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
@@ -26436,7 +26438,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26451,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974049.4465837642</v>
+        <v>-974049.4465837637</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438289</v>
+        <v>354695.2991438283</v>
       </c>
       <c r="D6" t="n">
-        <v>354695.2991438289</v>
+        <v>354695.2991438288</v>
       </c>
       <c r="E6" t="n">
-        <v>105902.0429776739</v>
+        <v>105902.0429776736</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850289</v>
+        <v>431314.5047850288</v>
       </c>
       <c r="G6" t="n">
         <v>431314.5047850286</v>
       </c>
       <c r="H6" t="n">
+        <v>431314.5047850286</v>
+      </c>
+      <c r="I6" t="n">
+        <v>431314.5047850286</v>
+      </c>
+      <c r="J6" t="n">
+        <v>213783.3023877514</v>
+      </c>
+      <c r="K6" t="n">
         <v>431314.504785029</v>
       </c>
-      <c r="I6" t="n">
-        <v>431314.5047850288</v>
-      </c>
-      <c r="J6" t="n">
-        <v>213783.3023877512</v>
-      </c>
-      <c r="K6" t="n">
-        <v>431314.5047850287</v>
-      </c>
       <c r="L6" t="n">
+        <v>431314.5047850286</v>
+      </c>
+      <c r="M6" t="n">
+        <v>346259.4768495168</v>
+      </c>
+      <c r="N6" t="n">
+        <v>431314.5047850286</v>
+      </c>
+      <c r="O6" t="n">
+        <v>431314.504785029</v>
+      </c>
+      <c r="P6" t="n">
         <v>431314.5047850289</v>
-      </c>
-      <c r="M6" t="n">
-        <v>346259.4768495171</v>
-      </c>
-      <c r="N6" t="n">
-        <v>431314.5047850285</v>
-      </c>
-      <c r="O6" t="n">
-        <v>431314.5047850293</v>
-      </c>
-      <c r="P6" t="n">
-        <v>431314.5047850286</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.7652431262825</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>74.44654320283774</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>50.02417202654166</v>
+        <v>264.2566561617157</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>100.8920399382123</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>100.0350347748408</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>7.035227906104467</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>197.2704585482675</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>38.82058765106854</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>42.85742251821114</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>197.7695399770433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,13 +31846,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857162</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32078,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32245,7 +32247,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32318,16 +32320,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32561,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338203</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33661,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34138,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>538.5853835133125</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>508.510055302383</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36209,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394616</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>396.4513495912942</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802598.122217286</v>
+        <v>1798585.512203294</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>274.7944255145753</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>9.152727013335143</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.26634217487534</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>289.1825630108448</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>150.9601371840612</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>137.7197870082163</v>
+        <v>95.815141637642</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>326.452304119939</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>230.198481639546</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>54.79373930378277</v>
       </c>
       <c r="T10" t="n">
-        <v>21.77940929912585</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>93.4044447618827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T16" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>212.3267021497095</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>179.878080151978</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,37 +4342,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520486</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520486</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686061</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064737</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080117</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986291</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.5839474470786</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4479,25 +4479,25 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
         <v>1735.608663915319</v>
@@ -4521,19 +4521,19 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040962</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.014542318866</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.024991420848</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>975.2324122773183</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.830166081658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>839.2686188635128</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C7" t="n">
-        <v>670.3324359356059</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D7" t="n">
-        <v>520.2157965232701</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E7" t="n">
-        <v>520.2157965232701</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F7" t="n">
-        <v>373.3258490253597</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G7" t="n">
-        <v>205.6230124000787</v>
+        <v>260.6207649649916</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635128</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2686188635128</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1137.806891408391</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>752.0186388101465</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>341.032734020539</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1782.116879428058</v>
       </c>
       <c r="T10" t="n">
-        <v>1815.46468751357</v>
+        <v>1560.350263997584</v>
       </c>
       <c r="U10" t="n">
-        <v>1526.361820639214</v>
+        <v>1560.350263997584</v>
       </c>
       <c r="V10" t="n">
-        <v>1271.677332433327</v>
+        <v>1305.665775791697</v>
       </c>
       <c r="W10" t="n">
-        <v>982.2601623963666</v>
+        <v>1305.665775791697</v>
       </c>
       <c r="X10" t="n">
-        <v>754.2706114983492</v>
+        <v>1077.67622489368</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.4780323548191</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="11">
@@ -5032,13 +5032,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5126,10 +5126,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5758,7 +5758,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,22 +6074,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.172021309389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7490,28 +7490,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6605733532803</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2265.268053123717</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.508338262028</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.091168225067</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.10161732705</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.30903818352</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.21102825632966</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>73.85777223953468</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.52737017531024</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
@@ -26331,31 +26331,31 @@
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26444,13 +26444,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974049.4465837637</v>
+        <v>-974049.4465837639</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438283</v>
+        <v>354695.2991438288</v>
       </c>
       <c r="D6" t="n">
         <v>354695.2991438288</v>
       </c>
       <c r="E6" t="n">
-        <v>105902.0429776736</v>
+        <v>105554.6637233165</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850288</v>
+        <v>430967.1255306719</v>
       </c>
       <c r="G6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.1255306714</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.1255306722</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.1255306719</v>
       </c>
       <c r="J6" t="n">
-        <v>213783.3023877514</v>
+        <v>213435.9231333945</v>
       </c>
       <c r="K6" t="n">
-        <v>431314.504785029</v>
+        <v>430967.1255306716</v>
       </c>
       <c r="L6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.1255306715</v>
       </c>
       <c r="M6" t="n">
-        <v>346259.4768495168</v>
+        <v>345912.0975951601</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850286</v>
+        <v>430967.125530672</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.504785029</v>
+        <v>430967.1255306715</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850289</v>
+        <v>430967.1255306719</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>74.44654320283774</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>377.0852116427184</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>264.2566561617157</v>
+        <v>273.0942536208836</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76.09032876016272</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>100.0350347748408</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.035227906104467</v>
+        <v>48.93987327667878</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.82058765106854</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>180.7232440139074</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>134.9752860276591</v>
       </c>
       <c r="T10" t="n">
-        <v>197.7695399770433</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31846,13 +31846,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338203</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34210,10 +34210,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0572943778175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37858,10 +37858,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1798585.512203294</v>
+        <v>1800346.04250608</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>70.01505925776679</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.152727013335143</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>34.987230763697</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>289.1825630108448</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>283.6826708844488</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>104.5702261485542</v>
       </c>
       <c r="H7" t="n">
-        <v>95.815141637642</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>230.198481639546</v>
+        <v>280.3734770621768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.79373930378277</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>205.4376564928994</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874485</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>40.96105405076854</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890332</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426608</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578129</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>133.3722917337063</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>23.41986852521132</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>178.6837743322707</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1302.873252607111</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539436</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.953910953445</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1700.268026780272</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1042.179465010819</v>
+        <v>785.9944709118752</v>
       </c>
       <c r="C7" t="n">
-        <v>873.2432820829119</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="D7" t="n">
-        <v>723.1266426705762</v>
+        <v>466.9416485716325</v>
       </c>
       <c r="E7" t="n">
-        <v>575.2135490881831</v>
+        <v>319.0285549892394</v>
       </c>
       <c r="F7" t="n">
-        <v>428.3236015902727</v>
+        <v>172.1386074913291</v>
       </c>
       <c r="G7" t="n">
-        <v>260.6207649649916</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W7" t="n">
-        <v>1672.610059882606</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.620508984588</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1223.827929841058</v>
+        <v>967.6429357421149</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955553</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.072590015141</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.806891408391</v>
+        <v>1486.072305357837</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101465</v>
+        <v>1100.284052759592</v>
       </c>
       <c r="F8" t="n">
-        <v>341.032734020539</v>
+        <v>689.2981479699847</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019675</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1782.116879428058</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.350263997584</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.350263997584</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.665775791697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1305.665775791697</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1077.67622489368</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>856.8836457501499</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5418,55 +5418,55 @@
         <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1902.510931370362</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.011051783223</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783223</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,55 +6214,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,25 +6715,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>228.5361496476752</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>228.5361496476752</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192548</v>
@@ -6940,49 +6940,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.619588293478</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>46.69998683092859</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>211.1765892730594</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>65.54986409393021</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.9259388694754023</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.15184655856257</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>263.1031298113797</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>38.72167599501753</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019905</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907537</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26441,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181804</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-974049.4465837639</v>
+        <v>-974049.4465837638</v>
       </c>
       <c r="C6" t="n">
-        <v>354695.2991438288</v>
+        <v>354695.2991438289</v>
       </c>
       <c r="D6" t="n">
         <v>354695.2991438288</v>
       </c>
       <c r="E6" t="n">
-        <v>105554.6637233165</v>
+        <v>105867.3050522381</v>
       </c>
       <c r="F6" t="n">
-        <v>430967.1255306719</v>
+        <v>431279.7668595928</v>
       </c>
       <c r="G6" t="n">
-        <v>430967.1255306714</v>
+        <v>431279.7668595935</v>
       </c>
       <c r="H6" t="n">
-        <v>430967.1255306722</v>
+        <v>431279.7668595931</v>
       </c>
       <c r="I6" t="n">
-        <v>430967.1255306719</v>
+        <v>431279.7668595933</v>
       </c>
       <c r="J6" t="n">
-        <v>213435.9231333945</v>
+        <v>213748.5644623159</v>
       </c>
       <c r="K6" t="n">
-        <v>430967.1255306716</v>
+        <v>431279.7668595933</v>
       </c>
       <c r="L6" t="n">
-        <v>430967.1255306715</v>
+        <v>431279.7668595935</v>
       </c>
       <c r="M6" t="n">
-        <v>345912.0975951601</v>
+        <v>346224.7389240811</v>
       </c>
       <c r="N6" t="n">
-        <v>430967.125530672</v>
+        <v>431279.766859593</v>
       </c>
       <c r="O6" t="n">
-        <v>430967.1255306715</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="P6" t="n">
-        <v>430967.1255306719</v>
+        <v>431279.7668595933</v>
       </c>
     </row>
   </sheetData>
@@ -26792,37 +26792,37 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26971,10 +26971,10 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>311.915310814495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0852116427184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>53.94492190635033</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>273.0942536208836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>76.09032876016272</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>71.00037073623412</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>61.45558211047405</v>
       </c>
       <c r="H7" t="n">
-        <v>48.93987327667878</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7232440139074</v>
+        <v>130.5482485912766</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>134.9752860276591</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28787,7 +28787,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
